--- a/docs/reports/size_cores.xlsx
+++ b/docs/reports/size_cores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\uni\vmicro16\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4811416E-FA76-4347-B5B4-2A833C23DAA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274D1DA4-C176-4A27-8CE1-971DA2B8C987}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="5805" windowWidth="14025" windowHeight="13575" xr2:uid="{F7366620-7C1B-460C-9134-2E5290F42A59}"/>
   </bookViews>
@@ -90,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,6 +124,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Regs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -142,6 +198,7 @@
                   <c:v>Regs</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -185,6 +242,7 @@
                   <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
@@ -196,32 +254,1604 @@
                 <c:pt idx="0">
                   <c:v>886</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>1322</c:v>
+                </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6790-4672-82C4-58A828B6247D}"/>
+              <c16:uniqueId val="{00000001-0059-4266-BC4C-8224B828FB6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="200"/>
+        <c:axId val="435275912"/>
+        <c:axId val="435276240"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ALMs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$13:$C$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>709</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1138</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-0059-4266-BC4C-8224B828FB6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ALM %</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$13:$D$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-0059-4266-BC4C-8224B828FB6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Blocks</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$13:$E$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>74752</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75776</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-0059-4266-BC4C-8224B828FB6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Blocks %</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$13:$F$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-0059-4266-BC4C-8224B828FB6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fmax</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$13:$G$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>93.86</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>82.31</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-0059-4266-BC4C-8224B828FB6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="435275912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435276240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="435276240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435275912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FmaX</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$12</c:f>
+              <c:f>Sheet1!$G$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ALMs</c:v>
+                  <c:v>Fmax</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$13:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>93.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.31</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2AEA-4496-9F4F-B626615C8E23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="200"/>
+        <c:axId val="435275912"/>
+        <c:axId val="435276240"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Regs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$13:$B$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>886</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1322</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-2AEA-4496-9F4F-B626615C8E23}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ALMs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$13:$C$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>709</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1138</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-2AEA-4496-9F4F-B626615C8E23}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ALM %</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$13:$D$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-2AEA-4496-9F4F-B626615C8E23}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Blocks</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$13:$E$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>74752</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75776</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-2AEA-4496-9F4F-B626615C8E23}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Blocks %</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$13:$F$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-2AEA-4496-9F4F-B626615C8E23}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="435275912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435276240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="435276240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435275912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>ALM %</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Blocks %</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blocks %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -264,19 +1894,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$C$20</c:f>
+              <c:f>Sheet1!$F$13:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>709</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6790-4672-82C4-58A828B6247D}"/>
+              <c16:uniqueId val="{00000000-1600-4466-80C6-9A524B2A2161}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -346,32 +1979,653 @@
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6790-4672-82C4-58A828B6247D}"/>
+              <c16:uniqueId val="{00000001-1600-4466-80C6-9A524B2A2161}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="200"/>
+        <c:axId val="435275912"/>
+        <c:axId val="435276240"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Regs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$13:$B$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>886</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1322</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-1600-4466-80C6-9A524B2A2161}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ALMs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$13:$C$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>709</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1138</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-1600-4466-80C6-9A524B2A2161}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Blocks</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$13:$E$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>74752</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75776</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-1600-4466-80C6-9A524B2A2161}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fmax</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$13:$G$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>93.86</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>82.31</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-1600-4466-80C6-9A524B2A2161}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="435275912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435276240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="435276240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435275912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$12</c:f>
+              <c:f>Sheet1!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Blocks</c:v>
+                  <c:v>ALMs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -414,169 +2668,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$13:$E$20</c:f>
+              <c:f>Sheet1!$C$13:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>74752</c:v>
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6790-4672-82C4-58A828B6247D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Blocks %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$13:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$13:$F$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6790-4672-82C4-58A828B6247D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fmax</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$13:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$13:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>93.86</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6790-4672-82C4-58A828B6247D}"/>
+              <c16:uniqueId val="{00000000-8F75-4E25-8599-A1C1BD41B284}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -588,10 +2695,503 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="200"/>
         <c:axId val="435275912"/>
         <c:axId val="435276240"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Regs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$13:$B$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>886</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1322</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-8F75-4E25-8599-A1C1BD41B284}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ALM %</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$13:$D$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-8F75-4E25-8599-A1C1BD41B284}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Blocks</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$13:$E$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>74752</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75776</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-8F75-4E25-8599-A1C1BD41B284}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Blocks %</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$13:$F$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-8F75-4E25-8599-A1C1BD41B284}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fmax</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$13:$G$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>93.86</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>82.31</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-8F75-4E25-8599-A1C1BD41B284}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="435275912"/>
@@ -792,6 +3392,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1295,31 +4015,1542 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>503373</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>32924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078C34AC-F964-47D1-A7BE-0B60758224D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEDB6A1E-50EB-4186-904D-28F66DC59C06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1328,6 +5559,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>503373</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0972D4E0-8E6F-4E60-8100-0AE21AAFC23B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>496956</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>29096</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A66FCECC-4398-421A-8748-BE17161D9D06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>503372</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>32924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E988EAA5-CF21-47FD-9027-AEF4C638C0D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1635,8 +5980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97F796E-16F2-4844-9FB7-50E4E41A20A2}">
   <dimension ref="A11:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,6 +6041,24 @@
       <c r="A14">
         <v>2</v>
       </c>
+      <c r="B14">
+        <v>1322</v>
+      </c>
+      <c r="C14">
+        <v>1138</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>75776</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>82.31</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">

--- a/docs/reports/size_cores.xlsx
+++ b/docs/reports/size_cores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\uni\vmicro16\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274D1DA4-C176-4A27-8CE1-971DA2B8C987}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81302FF-47B5-4601-8B5B-31E6C6AC49FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="5805" windowWidth="14025" windowHeight="13575" xr2:uid="{F7366620-7C1B-460C-9134-2E5290F42A59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7366620-7C1B-460C-9134-2E5290F42A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Cores</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Regs</t>
+  </si>
+  <si>
+    <t>ALM Limit</t>
+  </si>
+  <si>
+    <t>Fmax Limit</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -145,7 +154,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Regs</a:t>
+              <a:t>Regs &amp; ALMs</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -182,16 +191,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$12</c:f>
+              <c:f>Sheet1!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -202,21 +210,30 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$13:$A$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$13:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -238,32 +255,261 @@
                 <c:pt idx="6">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$B$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$13:$D$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$13:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>886</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1322</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27919</c:v>
+                </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0059-4266-BC4C-8224B828FB6C}"/>
+              <c16:uniqueId val="{00000000-D507-49AF-A568-4696C27E7CCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ALMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$13:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$13:$B$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$13:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12790</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D507-49AF-A568-4696C27E7CCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ALM Limit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>32</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>64</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$13:$I$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$13:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32070</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32070</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32070</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32070</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32070</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32070</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32070</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D507-49AF-A568-4696C27E7CCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -275,15 +521,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="200"/>
+        <c:smooth val="0"/>
         <c:axId val="435275912"/>
         <c:axId val="435276240"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
+                <c:idx val="2"/>
+                <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
@@ -296,33 +542,38 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>ALMs</c:v>
+                        <c:v>ALM %</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -343,9 +594,6 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -354,129 +602,50 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$D$13:$D$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$13:$C$20</c15:sqref>
+                          <c15:sqref>Sheet1!$D$13:$D$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>709</c:v>
+                        <c:v>886</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1138</c:v>
+                        <c:v>1322</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2201</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3844</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7328</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>14107</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>27919</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-0059-4266-BC4C-8224B828FB6C}"/>
+                    <c16:uniqueId val="{00000002-D507-49AF-A568-4696C27E7CCE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>ALM %</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$13:$D$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-0059-4266-BC4C-8224B828FB6C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="3"/>
                 <c:order val="3"/>
@@ -498,27 +667,32 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -539,42 +713,58 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$E$13:$E$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$13:$E$20</c15:sqref>
+                          <c15:sqref>Sheet1!$E$13:$E$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0" formatCode="General">
                         <c:v>74752</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>75776</c:v>
+                      </c:pt>
+                      <c:pt idx="2" formatCode="General">
+                        <c:v>81920</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>90112</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>102400</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>122880</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>159744</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-0059-4266-BC4C-8224B828FB6C}"/>
+                    <c16:uniqueId val="{00000003-D507-49AF-A568-4696C27E7CCE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
@@ -596,27 +786,32 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -637,42 +832,58 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$F$13:$F$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$13:$F$20</c15:sqref>
+                          <c15:sqref>Sheet1!$F$13:$F$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-0059-4266-BC4C-8224B828FB6C}"/>
+                    <c16:uniqueId val="{00000004-D507-49AF-A568-4696C27E7CCE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="5"/>
                 <c:order val="5"/>
@@ -694,27 +905,32 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -735,44 +951,60 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$G$13:$G$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$13:$G$20</c15:sqref>
+                          <c15:sqref>Sheet1!$G$13:$G$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>93.86</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>82.31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>67.959999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>61.9</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>60.94</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>59.44</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>58.25</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-0059-4266-BC4C-8224B828FB6C}"/>
+                    <c16:uniqueId val="{00000005-D507-49AF-A568-4696C27E7CCE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="435275912"/>
         <c:scaling>
@@ -780,9 +1012,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Core Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -846,13 +1133,15 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -888,6 +1177,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -966,9 +1286,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FmaX</a:t>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>ALM % </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Blocks % </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1004,41 +1331,49 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$12</c:f>
+              <c:f>Sheet1!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fmax</c:v>
+                  <c:v>ALM %</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$13:$A$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$13:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1060,32 +1395,50 @@
                 <c:pt idx="6">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$13:$G$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$13:$C$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$C$13:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>93.86</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.31</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2AEA-4496-9F4F-B626615C8E23}"/>
+              <c16:uniqueId val="{00000000-BB30-4A8D-B8D8-9309B212AFBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1097,12 +1450,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="200"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="435275912"/>
         <c:axId val="435276240"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
@@ -1111,7 +1465,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$12</c15:sqref>
+                          <c15:sqref>Sheet1!$D$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1124,27 +1478,44 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -1165,9 +1536,6 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1176,31 +1544,50 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$D$13:$D$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$13:$B$20</c15:sqref>
+                          <c15:sqref>Sheet1!$D$13:$D$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>886</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>1322</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2201</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3844</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7328</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>14107</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>27919</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-2AEA-4496-9F4F-B626615C8E23}"/>
+                    <c16:uniqueId val="{00000002-BB30-4A8D-B8D8-9309B212AFBE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="1"/>
                 <c:order val="1"/>
@@ -1209,7 +1596,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$12</c15:sqref>
+                          <c15:sqref>Sheet1!$B$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1222,27 +1609,44 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -1263,140 +1667,58 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$13:$B$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$13:$C$20</c15:sqref>
+                          <c15:sqref>Sheet1!$B$13:$B$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>709</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>1138</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1840</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3341</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6522</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12790</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>25312</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-2AEA-4496-9F4F-B626615C8E23}"/>
+                    <c16:uniqueId val="{00000003-BB30-4A8D-B8D8-9309B212AFBE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>ALM %</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$13:$D$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-2AEA-4496-9F4F-B626615C8E23}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="3"/>
                 <c:order val="3"/>
@@ -1418,27 +1740,44 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -1459,84 +1798,117 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$E$13:$E$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$13:$E$20</c15:sqref>
+                          <c15:sqref>Sheet1!$E$13:$E$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0" formatCode="General">
                         <c:v>74752</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>75776</c:v>
+                      </c:pt>
+                      <c:pt idx="2" formatCode="General">
+                        <c:v>81920</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>90112</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>102400</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>122880</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>159744</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-2AEA-4496-9F4F-B626615C8E23}"/>
+                    <c16:uniqueId val="{00000004-BB30-4A8D-B8D8-9309B212AFBE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
+                <c:idx val="5"/>
+                <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$12</c15:sqref>
+                          <c15:sqref>Sheet1!$G$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Blocks %</c:v>
+                        <c:v>Fmax</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -1557,44 +1929,184 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$G$13:$G$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$13:$F$20</c15:sqref>
+                          <c15:sqref>Sheet1!$G$13:$G$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>2</c:v>
+                        <c:v>93.86</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>82.31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>67.959999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>61.9</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>60.94</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>59.44</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>58.25</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-2AEA-4496-9F4F-B626615C8E23}"/>
+                    <c16:uniqueId val="{00000005-BB30-4A8D-B8D8-9309B212AFBE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:barChart>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blocks %</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$13:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$F$13:$F$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$F$13:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB30-4A8D-B8D8-9309B212AFBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="444741936"/>
+        <c:axId val="444748168"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="435275912"/>
         <c:scaling>
@@ -1602,9 +2114,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Core Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1667,6 +2234,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ALM %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1702,6 +2324,121 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="444748168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Blocks %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444741936"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="444741936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="444748168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1710,6 +2447,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1789,13 +2557,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>ALM %</a:t>
+              <a:t>Fmax</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Blocks %</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1831,40 +2594,49 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$12</c:f>
+              <c:f>Sheet1!$G$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Blocks %</c:v>
+                  <c:v>Fmax</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$13:$A$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$13:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1885,109 +2657,155 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$13:$F$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$G$13:$G$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$G$13:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>93.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>82.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1600-4466-80C6-9A524B2A2161}"/>
+              <c16:uniqueId val="{00000000-4D87-495D-A4BF-4F310F828969}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$12</c:f>
+              <c:f>Sheet1!$H$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ALM %</c:v>
+                  <c:v>Fmax Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$13:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>32</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>64</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$13:$D$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$H$13:$H$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$H$13:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1600-4466-80C6-9A524B2A2161}"/>
+              <c16:uniqueId val="{00000001-4D87-495D-A4BF-4F310F828969}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1999,12 +2817,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="200"/>
+        <c:smooth val="0"/>
         <c:axId val="435275912"/>
         <c:axId val="435276240"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
@@ -2013,6 +2831,125 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Regs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$D$13:$D$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$13:$D$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>886</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1322</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2201</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3844</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7328</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>14107</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>27919</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-4D87-495D-A4BF-4F310F828969}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
@@ -2020,33 +2957,38 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Regs</c:v>
+                        <c:v>ALMs</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -2067,9 +3009,6 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2077,35 +3016,54 @@
                 <c:val>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$13:$B$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$13:$B$20</c15:sqref>
+                          <c15:sqref>Sheet1!$B$13:$B$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>886</c:v>
+                        <c:v>709</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1322</c:v>
+                        <c:v>1138</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1840</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3341</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6522</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12790</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>25312</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-1600-4466-80C6-9A524B2A2161}"/>
+                    <c16:uniqueId val="{00000003-4D87-495D-A4BF-4F310F828969}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
+                <c:idx val="2"/>
+                <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -2118,33 +3076,38 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>ALMs</c:v>
+                        <c:v>ALM %</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -2165,42 +3128,58 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$C$13:$C$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$13:$C$20</c15:sqref>
+                          <c15:sqref>Sheet1!$C$13:$C$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>709</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1138</c:v>
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>79</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-1600-4466-80C6-9A524B2A2161}"/>
+                    <c16:uniqueId val="{00000004-4D87-495D-A4BF-4F310F828969}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="3"/>
                 <c:order val="3"/>
@@ -2222,27 +3201,32 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -2263,84 +3247,105 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$E$13:$E$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$13:$E$20</c15:sqref>
+                          <c15:sqref>Sheet1!$E$13:$E$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0" formatCode="General">
                         <c:v>74752</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>75776</c:v>
+                      </c:pt>
+                      <c:pt idx="2" formatCode="General">
+                        <c:v>81920</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>90112</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>102400</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>122880</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>159744</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-1600-4466-80C6-9A524B2A2161}"/>
+                    <c16:uniqueId val="{00000005-4D87-495D-A4BF-4F310F828969}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
+                <c:idx val="4"/>
+                <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$12</c15:sqref>
+                          <c15:sqref>Sheet1!$F$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Fmax</c:v>
+                        <c:v>Blocks %</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -2361,44 +3366,60 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$F$13:$F$20</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$13:$G$20</c15:sqref>
+                          <c15:sqref>Sheet1!$F$13:$F$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>93.86</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>82.31</c:v>
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-1600-4466-80C6-9A524B2A2161}"/>
+                    <c16:uniqueId val="{00000006-4D87-495D-A4BF-4F310F828969}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="435275912"/>
         <c:scaling>
@@ -2406,9 +3427,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Core Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2471,6 +3547,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Fmax (MHz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2514,65 +3645,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2586,7 +3660,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2601,713 +3675,7 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ALMs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$13:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$13:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>709</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1138</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8F75-4E25-8599-A1C1BD41B284}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="200"/>
-        <c:axId val="435275912"/>
-        <c:axId val="435276240"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Regs</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$13:$B$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>886</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1322</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-8F75-4E25-8599-A1C1BD41B284}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>ALM %</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$13:$D$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-8F75-4E25-8599-A1C1BD41B284}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Blocks</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$13:$E$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0" formatCode="General">
-                        <c:v>74752</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>75776</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-8F75-4E25-8599-A1C1BD41B284}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Blocks %</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$13:$F$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-8F75-4E25-8599-A1C1BD41B284}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Fmax</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>128</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$13:$G$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>93.86</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>82.31</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-8F75-4E25-8599-A1C1BD41B284}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="435275912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="435276240"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="435276240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="435275912"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3472,46 +3840,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5021,530 +5349,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>503373</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>503372</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>32924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="19" name="Chart 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEDB6A1E-50EB-4186-904D-28F66DC59C06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA72245-0114-4D73-942C-3224150ACEB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5566,23 +5391,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>503373</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>503372</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>32924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="20" name="Chart 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0972D4E0-8E6F-4E60-8100-0AE21AAFC23B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0C3B40-ACB3-4D38-84A0-C5C78FAD8DF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5604,23 +5429,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>496956</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>29096</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>503372</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>32924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="21" name="Chart 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A66FCECC-4398-421A-8748-BE17161D9D06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5690D9-171A-4942-9E72-6DF7F41474BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5635,44 +5460,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>503372</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>32924</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E988EAA5-CF21-47FD-9027-AEF4C638C0D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5978,31 +5765,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97F796E-16F2-4844-9FB7-50E4E41A20A2}">
-  <dimension ref="A11:G20"/>
+  <dimension ref="A11:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -6013,19 +5800,25 @@
       <c r="G12" t="s">
         <v>3</v>
       </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
+        <v>709</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
         <v>886</v>
-      </c>
-      <c r="C13">
-        <v>709</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
       </c>
       <c r="E13">
         <v>74752</v>
@@ -6036,19 +5829,25 @@
       <c r="G13">
         <v>93.86</v>
       </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>32070</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14">
+        <v>1138</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
         <v>1322</v>
-      </c>
-      <c r="C14">
-        <v>1138</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
       </c>
       <c r="E14" s="1">
         <v>75776</v>
@@ -6059,35 +5858,161 @@
       <c r="G14">
         <v>82.31</v>
       </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>32070</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
+      <c r="B15">
+        <v>1840</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>2201</v>
+      </c>
+      <c r="E15">
+        <v>81920</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>32070</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
+      <c r="B16">
+        <v>3341</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>3844</v>
+      </c>
+      <c r="E16">
+        <v>90112</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>61.9</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>32070</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>6522</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>7328</v>
+      </c>
+      <c r="E17">
+        <v>102400</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>60.94</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <v>32070</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>32</v>
       </c>
+      <c r="B18">
+        <v>12790</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>14107</v>
+      </c>
+      <c r="E18">
+        <v>122880</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>59.44</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>32070</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>64</v>
       </c>
+      <c r="B19">
+        <v>25312</v>
+      </c>
+      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>27919</v>
+      </c>
+      <c r="E19">
+        <v>159744</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>58.25</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>32070</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>128</v>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z30" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/docs/reports/size_cores.xlsx
+++ b/docs/reports/size_cores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\uni\vmicro16\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81302FF-47B5-4601-8B5B-31E6C6AC49FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E32AE23-6A05-48CC-8992-24A0E407D1A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7366620-7C1B-460C-9134-2E5290F42A59}"/>
+    <workbookView xWindow="15375" yWindow="5085" windowWidth="14025" windowHeight="13575" xr2:uid="{F7366620-7C1B-460C-9134-2E5290F42A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Cores</t>
   </si>
   <si>
     <t>ALMs</t>
-  </si>
-  <si>
-    <t>Shared memory</t>
   </si>
   <si>
     <t>Fmax</t>
@@ -65,11 +62,41 @@
   <si>
     <t>a</t>
   </si>
+  <si>
+    <t>S_ALMs</t>
+  </si>
+  <si>
+    <t>S_ALM %</t>
+  </si>
+  <si>
+    <t>S_Regs</t>
+  </si>
+  <si>
+    <t>S_Blocks</t>
+  </si>
+  <si>
+    <t>S_Blocks %</t>
+  </si>
+  <si>
+    <t>S_Fmax</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>shared</t>
+  </si>
+  <si>
+    <t>S_Regs %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,9 +126,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -998,6 +1026,134 @@
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-D507-49AF-A568-4696C27E7CCE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>S_ALMs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$39:$B$45</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$39:$B$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="6">
+                        <c:v>26362</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-D507-49AF-A568-4696C27E7CCE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>S_ALM %</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$C$39:$C$45</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$39:$C$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="6">
+                        <c:v>82</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-D507-49AF-A568-4696C27E7CCE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2701,7 +2857,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D87-495D-A4BF-4F310F828969}"/>
+              <c16:uniqueId val="{00000000-7996-4841-B12E-17BA18E200BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2805,7 +2961,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4D87-495D-A4BF-4F310F828969}"/>
+              <c16:uniqueId val="{00000001-7996-4841-B12E-17BA18E200BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2936,7 +3092,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-4D87-495D-A4BF-4F310F828969}"/>
+                    <c16:uniqueId val="{00000002-7996-4841-B12E-17BA18E200BA}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3055,7 +3211,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-4D87-495D-A4BF-4F310F828969}"/>
+                    <c16:uniqueId val="{00000003-7996-4841-B12E-17BA18E200BA}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3174,7 +3330,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-4D87-495D-A4BF-4F310F828969}"/>
+                    <c16:uniqueId val="{00000004-7996-4841-B12E-17BA18E200BA}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3293,7 +3449,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-4D87-495D-A4BF-4F310F828969}"/>
+                    <c16:uniqueId val="{00000005-7996-4841-B12E-17BA18E200BA}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3412,7 +3568,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-4D87-495D-A4BF-4F310F828969}"/>
+                    <c16:uniqueId val="{00000006-7996-4841-B12E-17BA18E200BA}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3636,7 +3792,1916 @@
         <c:crossAx val="435275912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Regs &amp; ALMs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S_ALMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$50:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F879-4B5C-8227-C8747494FA80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S_Regs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$50:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-F879-4B5C-8227-C8747494FA80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ALM Limit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$50:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-F879-4B5C-8227-C8747494FA80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="435275912"/>
+        <c:axId val="435276240"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>S_ALM %</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$50:$C$56</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>10.24</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>17.28</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>27.44</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>103</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>233</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>495</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-F879-4B5C-8227-C8747494FA80}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="435275912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Core Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435276240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="435276240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435275912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>ALM % </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Blocks % </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S_ALM %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$50:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3644-4C3A-B0FF-8D852D874B45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S_Blocks %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$50:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3644-4C3A-B0FF-8D852D874B45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="435275912"/>
+        <c:axId val="435276240"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Regs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$13:$D$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>886</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1322</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2201</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3844</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7328</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>14107</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>27919</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-3644-4C3A-B0FF-8D852D874B45}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ALMs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$13:$B$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>709</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1138</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1840</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3341</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6522</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12790</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>25312</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-3644-4C3A-B0FF-8D852D874B45}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fmax</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$13:$G$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>93.86</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>82.31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>67.959999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>61.9</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>60.94</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>59.44</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>58.25</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-3644-4C3A-B0FF-8D852D874B45}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S_Regs %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$50:$J$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6437500000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.693750000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.206250000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.631250000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.581249999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175.78749999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3644-4C3A-B0FF-8D852D874B45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="444741936"/>
+        <c:axId val="444748168"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>S_Fmax</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$50:$F$56</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-3644-4C3A-B0FF-8D852D874B45}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="435275912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Core Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435276240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="435276240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ALM %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435275912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="444748168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Blocks %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444741936"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="444741936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="444748168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3840,6 +5905,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4847,6 +6992,1012 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5442,10 +8593,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Chart 20">
+        <xdr:cNvPr id="23" name="Chart 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5690D9-171A-4942-9E72-6DF7F41474BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC2D34A-1D6D-4BD7-8349-B4C16F3435EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5460,6 +8611,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>604225</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>32924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE3C3E3-17EF-47BF-8F85-A4BE7E287F13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>503372</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>32924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF6F69C-DF39-4559-8C94-17444970EAF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5765,19 +8992,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97F796E-16F2-4844-9FB7-50E4E41A20A2}">
-  <dimension ref="A11:Z30"/>
+  <dimension ref="A12:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
@@ -5786,25 +9014,25 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
         <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -6012,11 +9240,387 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
         <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>50</v>
+      </c>
+      <c r="I39">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="H40">
+        <v>50</v>
+      </c>
+      <c r="I40">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>50</v>
+      </c>
+      <c r="I41">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="H42">
+        <v>50</v>
+      </c>
+      <c r="I42">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>16</v>
+      </c>
+      <c r="H43">
+        <v>50</v>
+      </c>
+      <c r="I43">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>32</v>
+      </c>
+      <c r="H44">
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>64</v>
+      </c>
+      <c r="B45">
+        <v>26362</v>
+      </c>
+      <c r="C45">
+        <v>82</v>
+      </c>
+      <c r="D45">
+        <v>28768</v>
+      </c>
+      <c r="E45">
+        <v>225280</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>62.57</v>
+      </c>
+      <c r="H45">
+        <v>50</v>
+      </c>
+      <c r="I45">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>820</v>
+      </c>
+      <c r="C50">
+        <v>10.24</v>
+      </c>
+      <c r="D50">
+        <v>804</v>
+      </c>
+      <c r="E50">
+        <v>5.5</v>
+      </c>
+      <c r="F50">
+        <v>55</v>
+      </c>
+      <c r="H50">
+        <v>50</v>
+      </c>
+      <c r="I50">
+        <v>8000</v>
+      </c>
+      <c r="J50">
+        <f>(D50/16000)*100</f>
+        <v>5.0250000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>1382</v>
+      </c>
+      <c r="C51">
+        <v>17.28</v>
+      </c>
+      <c r="D51">
+        <v>1223</v>
+      </c>
+      <c r="E51" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F51">
+        <v>65</v>
+      </c>
+      <c r="H51">
+        <v>50</v>
+      </c>
+      <c r="I51">
+        <v>8000</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ref="J51:J56" si="0">(D51/16000)*100</f>
+        <v>7.6437500000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>2195</v>
+      </c>
+      <c r="C52">
+        <v>27.44</v>
+      </c>
+      <c r="D52">
+        <v>2031</v>
+      </c>
+      <c r="E52">
+        <v>8.5</v>
+      </c>
+      <c r="F52">
+        <v>85</v>
+      </c>
+      <c r="H52">
+        <v>50</v>
+      </c>
+      <c r="I52">
+        <v>8000</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>12.693750000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>4312</v>
+      </c>
+      <c r="C53">
+        <v>54</v>
+      </c>
+      <c r="D53">
+        <v>3713</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <v>50</v>
+      </c>
+      <c r="I53">
+        <v>8000</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>23.206250000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <v>8256</v>
+      </c>
+      <c r="C54">
+        <v>103</v>
+      </c>
+      <c r="D54">
+        <v>7301</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>50</v>
+      </c>
+      <c r="I54">
+        <v>8000</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>45.631250000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>32</v>
+      </c>
+      <c r="B55">
+        <v>18652</v>
+      </c>
+      <c r="C55">
+        <v>233</v>
+      </c>
+      <c r="D55">
+        <v>15933</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+      <c r="H55">
+        <v>50</v>
+      </c>
+      <c r="I55">
+        <v>8000</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>99.581249999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>39648</v>
+      </c>
+      <c r="C56">
+        <v>495</v>
+      </c>
+      <c r="D56">
+        <v>28126</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="H56">
+        <v>50</v>
+      </c>
+      <c r="I56">
+        <v>8000</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>175.78749999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/reports/size_cores.xlsx
+++ b/docs/reports/size_cores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\uni\vmicro16\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E32AE23-6A05-48CC-8992-24A0E407D1A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC67EA3-A13F-4BC1-BAAB-763547D60C1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15375" yWindow="5085" windowWidth="14025" windowHeight="13575" xr2:uid="{F7366620-7C1B-460C-9134-2E5290F42A59}"/>
+    <workbookView xWindow="23970" yWindow="4260" windowWidth="14025" windowHeight="13575" xr2:uid="{F7366620-7C1B-460C-9134-2E5290F42A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>Cores</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>S_Regs %</t>
+  </si>
+  <si>
+    <t>per</t>
   </si>
 </sst>
 </file>
@@ -785,7 +788,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-D507-49AF-A568-4696C27E7CCE}"/>
                   </c:ext>
@@ -904,7 +907,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-D507-49AF-A568-4696C27E7CCE}"/>
                   </c:ext>
@@ -1023,7 +1026,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-D507-49AF-A568-4696C27E7CCE}"/>
                   </c:ext>
@@ -1036,7 +1039,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$38</c15:sqref>
@@ -1087,7 +1090,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-D507-49AF-A568-4696C27E7CCE}"/>
                   </c:ext>
@@ -1100,7 +1103,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$38</c15:sqref>
@@ -1151,7 +1154,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-D507-49AF-A568-4696C27E7CCE}"/>
                   </c:ext>
@@ -1867,7 +1870,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-BB30-4A8D-B8D8-9309B212AFBE}"/>
                   </c:ext>
@@ -1998,7 +2001,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-BB30-4A8D-B8D8-9309B212AFBE}"/>
                   </c:ext>
@@ -2129,7 +2132,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-BB30-4A8D-B8D8-9309B212AFBE}"/>
                   </c:ext>
@@ -3209,7 +3212,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-7996-4841-B12E-17BA18E200BA}"/>
                   </c:ext>
@@ -3328,7 +3331,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-7996-4841-B12E-17BA18E200BA}"/>
                   </c:ext>
@@ -3447,7 +3450,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-7996-4841-B12E-17BA18E200BA}"/>
                   </c:ext>
@@ -3566,7 +3569,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-7996-4841-B12E-17BA18E200BA}"/>
                   </c:ext>
@@ -4966,7 +4969,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
@@ -5002,7 +5005,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$13:$B$20</c15:sqref>
@@ -5037,7 +5040,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-3644-4C3A-B0FF-8D852D874B45}"/>
                   </c:ext>
@@ -5091,7 +5094,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
@@ -5127,7 +5130,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$13:$G$20</c15:sqref>
@@ -5162,7 +5165,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-3644-4C3A-B0FF-8D852D874B45}"/>
                   </c:ext>
@@ -8992,10 +8995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97F796E-16F2-4844-9FB7-50E4E41A20A2}">
-  <dimension ref="A12:Z56"/>
+  <dimension ref="A12:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9618,6 +9621,146 @@
         <v>175.78749999999999</v>
       </c>
     </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>8000</v>
+      </c>
+      <c r="J62">
+        <f>(D62/16000)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="I63">
+        <v>8000</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ref="J63:J68" si="1">(D63/16000)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>8000</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>8000</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>16</v>
+      </c>
+      <c r="I66">
+        <v>8000</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>32</v>
+      </c>
+      <c r="B67">
+        <v>19294</v>
+      </c>
+      <c r="C67">
+        <v>241.18</v>
+      </c>
+      <c r="D67">
+        <v>14231</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>100</v>
+      </c>
+      <c r="I67">
+        <v>8000</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="1"/>
+        <v>88.943749999999994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="I68">
+        <v>8000</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/reports/size_cores.xlsx
+++ b/docs/reports/size_cores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\uni\vmicro16\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC67EA3-A13F-4BC1-BAAB-763547D60C1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C95494-AB4E-490E-9015-EF043636D2FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23970" yWindow="4260" windowWidth="14025" windowHeight="13575" xr2:uid="{F7366620-7C1B-460C-9134-2E5290F42A59}"/>
+    <workbookView xWindow="31230" yWindow="4890" windowWidth="14025" windowHeight="13575" xr2:uid="{F7366620-7C1B-460C-9134-2E5290F42A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1084,7 +1084,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="6">
-                        <c:v>26362</c:v>
+                        <c:v>25516</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1148,7 +1148,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="6">
-                        <c:v>82</c:v>
+                        <c:v>80</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8998,7 +8998,7 @@
   <dimension ref="A12:Z68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9347,13 +9347,13 @@
         <v>64</v>
       </c>
       <c r="B45">
-        <v>26362</v>
+        <v>25516</v>
       </c>
       <c r="C45">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D45">
-        <v>28768</v>
+        <v>28512</v>
       </c>
       <c r="E45">
         <v>225280</v>

--- a/docs/reports/size_cores.xlsx
+++ b/docs/reports/size_cores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\uni\vmicro16\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C95494-AB4E-490E-9015-EF043636D2FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B517DD-5D58-4FFD-9213-8366D1980A85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31230" yWindow="4890" windowWidth="14025" windowHeight="13575" xr2:uid="{F7366620-7C1B-460C-9134-2E5290F42A59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7366620-7C1B-460C-9134-2E5290F42A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="21">
   <si>
     <t>Cores</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>per</t>
+  </si>
+  <si>
+    <t>C6 shared</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Regs &amp; ALMs</a:t>
+              <a:t>DE1-SoC Usage</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -306,22 +309,22 @@
                   <c:v>886</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1322</c:v>
+                  <c:v>1983</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2201</c:v>
+                  <c:v>3301.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3844</c:v>
+                  <c:v>7688</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7328</c:v>
+                  <c:v>11005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14107</c:v>
+                  <c:v>21173.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27919</c:v>
+                  <c:v>41891.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,6 +362,86 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.462941347256755E-2"/>
+                  <c:y val="-1.4872506605826659E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7B22-4106-B553-C966F9A63143}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:extLst>
@@ -413,22 +496,22 @@
                   <c:v>709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1138</c:v>
+                  <c:v>1718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1840</c:v>
+                  <c:v>2771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3341</c:v>
+                  <c:v>6694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6522</c:v>
+                  <c:v>9795</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12790</c:v>
+                  <c:v>19197</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25312</c:v>
+                  <c:v>37980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,22 +731,22 @@
                         <c:v>886</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1322</c:v>
+                        <c:v>1983</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2201</c:v>
+                        <c:v>3301.5</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3844</c:v>
+                        <c:v>7688</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>7328</c:v>
+                        <c:v>11005</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>14107</c:v>
+                        <c:v>21173.5</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>27919</c:v>
+                        <c:v>41891.5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1718,22 +1801,22 @@
                         <c:v>886</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1322</c:v>
+                        <c:v>1983</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2201</c:v>
+                        <c:v>3301.5</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3844</c:v>
+                        <c:v>7688</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>7328</c:v>
+                        <c:v>11005</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>14107</c:v>
+                        <c:v>21173.5</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>27919</c:v>
+                        <c:v>41891.5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1849,22 +1932,22 @@
                         <c:v>709</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1138</c:v>
+                        <c:v>1718</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1840</c:v>
+                        <c:v>2771</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3341</c:v>
+                        <c:v>6694</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>6522</c:v>
+                        <c:v>9795</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>12790</c:v>
+                        <c:v>19197</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>25312</c:v>
+                        <c:v>37980</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3072,22 +3155,22 @@
                         <c:v>886</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1322</c:v>
+                        <c:v>1983</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2201</c:v>
+                        <c:v>3301.5</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3844</c:v>
+                        <c:v>7688</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>7328</c:v>
+                        <c:v>11005</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>14107</c:v>
+                        <c:v>21173.5</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>27919</c:v>
+                        <c:v>41891.5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3191,22 +3274,22 @@
                         <c:v>709</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1138</c:v>
+                        <c:v>1718</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1840</c:v>
+                        <c:v>2771</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3341</c:v>
+                        <c:v>6694</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>6522</c:v>
+                        <c:v>9795</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>12790</c:v>
+                        <c:v>19197</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>25312</c:v>
+                        <c:v>37980</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4894,22 +4977,22 @@
                         <c:v>886</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1322</c:v>
+                        <c:v>1983</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2201</c:v>
+                        <c:v>3301.5</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3844</c:v>
+                        <c:v>7688</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>7328</c:v>
+                        <c:v>11005</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>14107</c:v>
+                        <c:v>21173.5</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>27919</c:v>
+                        <c:v>41891.5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5019,22 +5102,22 @@
                         <c:v>709</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1138</c:v>
+                        <c:v>1718</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1840</c:v>
+                        <c:v>2771</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3341</c:v>
+                        <c:v>6694</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>6522</c:v>
+                        <c:v>9795</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>12790</c:v>
+                        <c:v>19197</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>25312</c:v>
+                        <c:v>37980</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5788,6 +5871,1267 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DE1-SoC Usage - Shared Memory</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Regs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$13:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$23:$D$29</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$23:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27919</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-742F-42CE-84B9-B2CB30B3ED7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ALMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$13:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$23:$B$29</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$23:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12790</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-742F-42CE-84B9-B2CB30B3ED7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ALM Limit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>32</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>64</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$13:$I$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$13:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32070</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32070</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32070</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32070</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32070</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32070</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32070</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-742F-42CE-84B9-B2CB30B3ED7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="435275912"/>
+        <c:axId val="435276240"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ALM %</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$D$13:$D$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$13:$D$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>886</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1983</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3301.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7688</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>11005</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>21173.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>41891.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-742F-42CE-84B9-B2CB30B3ED7F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Blocks</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$E$13:$E$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$13:$E$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>74752</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75776</c:v>
+                      </c:pt>
+                      <c:pt idx="2" formatCode="General">
+                        <c:v>81920</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>90112</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>102400</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>122880</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>159744</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-742F-42CE-84B9-B2CB30B3ED7F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Blocks %</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$F$13:$F$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$13:$F$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-742F-42CE-84B9-B2CB30B3ED7F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fmax</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$13:$A$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13:$A$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$G$13:$G$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$13:$G$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>93.86</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>82.31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>67.959999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>61.9</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>60.94</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>59.44</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>58.25</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-742F-42CE-84B9-B2CB30B3ED7F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>S_ALMs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$39:$B$45</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$39:$B$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="6">
+                        <c:v>25516</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-742F-42CE-84B9-B2CB30B3ED7F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>S_ALM %</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$C$39:$C$45</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$39:$C$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="6">
+                        <c:v>80</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-742F-42CE-84B9-B2CB30B3ED7F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="435275912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Core Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435276240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="435276240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435275912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5988,6 +7332,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -8001,6 +9385,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8586,13 +10473,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>503372</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>32924</xdr:rowOff>
+      <xdr:rowOff>66542</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8690,6 +10577,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>503372</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>32924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1073414C-03F2-4FE7-995A-41F20BABEFCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8995,10 +10920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97F796E-16F2-4844-9FB7-50E4E41A20A2}">
-  <dimension ref="A12:Z68"/>
+  <dimension ref="A12:Z107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9072,13 +10997,15 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>1138</v>
+        <f>B24*1.5+11</f>
+        <v>1718</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14">
-        <v>1322</v>
+        <f>D24*1.5</f>
+        <v>1983</v>
       </c>
       <c r="E14" s="1">
         <v>75776</v>
@@ -9101,13 +11028,15 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>1840</v>
+        <f>B25*1.5+11</f>
+        <v>2771</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15">
-        <v>2201</v>
+        <f t="shared" ref="D15:D19" si="0">D25*1.5</f>
+        <v>3301.5</v>
       </c>
       <c r="E15">
         <v>81920</v>
@@ -9130,13 +11059,15 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>3341</v>
+        <f>B26*2+12</f>
+        <v>6694</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>3844</v>
+        <f>D26*2</f>
+        <v>7688</v>
       </c>
       <c r="E16">
         <v>90112</v>
@@ -9159,13 +11090,15 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>6522</v>
+        <f t="shared" ref="B17:B18" si="1">B27*1.5+12</f>
+        <v>9795</v>
       </c>
       <c r="C17">
         <v>20</v>
       </c>
       <c r="D17">
-        <v>7328</v>
+        <f t="shared" ref="D17:D18" si="2">D27*1.5+13</f>
+        <v>11005</v>
       </c>
       <c r="E17">
         <v>102400</v>
@@ -9188,13 +11121,15 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>12790</v>
+        <f t="shared" si="1"/>
+        <v>19197</v>
       </c>
       <c r="C18">
         <v>40</v>
       </c>
       <c r="D18">
-        <v>14107</v>
+        <f t="shared" si="2"/>
+        <v>21173.5</v>
       </c>
       <c r="E18">
         <v>122880</v>
@@ -9217,13 +11152,15 @@
         <v>64</v>
       </c>
       <c r="B19">
-        <v>25312</v>
+        <f>B29*1.5+12</f>
+        <v>37980</v>
       </c>
       <c r="C19">
         <v>79</v>
       </c>
       <c r="D19">
-        <v>27919</v>
+        <f>D29*1.5+13</f>
+        <v>41891.5</v>
       </c>
       <c r="E19">
         <v>159744</v>
@@ -9238,6 +11175,243 @@
         <v>50</v>
       </c>
       <c r="I19">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>709</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>886</v>
+      </c>
+      <c r="E23">
+        <v>74752</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>93.86</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="I23">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1138</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1322</v>
+      </c>
+      <c r="E24" s="1">
+        <v>75776</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>82.31</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1840</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>2201</v>
+      </c>
+      <c r="E25">
+        <v>81920</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>3341</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>3844</v>
+      </c>
+      <c r="E26">
+        <v>90112</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>61.9</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>6522</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>7328</v>
+      </c>
+      <c r="E27">
+        <v>102400</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>60.94</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>12790</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>14107</v>
+      </c>
+      <c r="E28">
+        <v>122880</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>59.44</v>
+      </c>
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="I28">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>64</v>
+      </c>
+      <c r="B29">
+        <v>25312</v>
+      </c>
+      <c r="C29">
+        <v>79</v>
+      </c>
+      <c r="D29">
+        <v>27919</v>
+      </c>
+      <c r="E29">
+        <v>159744</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>58.25</v>
+      </c>
+      <c r="H29">
+        <v>50</v>
+      </c>
+      <c r="I29">
         <v>32070</v>
       </c>
     </row>
@@ -9467,7 +11641,7 @@
         <v>8000</v>
       </c>
       <c r="J51">
-        <f t="shared" ref="J51:J56" si="0">(D51/16000)*100</f>
+        <f t="shared" ref="J51:J56" si="3">(D51/16000)*100</f>
         <v>7.6437500000000007</v>
       </c>
     </row>
@@ -9497,7 +11671,7 @@
         <v>8000</v>
       </c>
       <c r="J52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12.693750000000001</v>
       </c>
     </row>
@@ -9527,7 +11701,7 @@
         <v>8000</v>
       </c>
       <c r="J53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>23.206250000000001</v>
       </c>
     </row>
@@ -9557,7 +11731,7 @@
         <v>8000</v>
       </c>
       <c r="J54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>45.631250000000001</v>
       </c>
     </row>
@@ -9587,7 +11761,7 @@
         <v>8000</v>
       </c>
       <c r="J55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>99.581249999999997</v>
       </c>
     </row>
@@ -9617,7 +11791,7 @@
         <v>8000</v>
       </c>
       <c r="J56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>175.78749999999999</v>
       </c>
     </row>
@@ -9682,7 +11856,7 @@
         <v>8000</v>
       </c>
       <c r="J63">
-        <f t="shared" ref="J63:J68" si="1">(D63/16000)*100</f>
+        <f t="shared" ref="J63:J68" si="4">(D63/16000)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -9694,7 +11868,7 @@
         <v>8000</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9706,7 +11880,7 @@
         <v>8000</v>
       </c>
       <c r="J65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9718,7 +11892,7 @@
         <v>8000</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9745,7 +11919,7 @@
         <v>8000</v>
       </c>
       <c r="J67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>88.943749999999994</v>
       </c>
     </row>
@@ -9757,8 +11931,245 @@
         <v>8000</v>
       </c>
       <c r="J68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>709</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>886</v>
+      </c>
+      <c r="E101">
+        <v>74752</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>93.86</v>
+      </c>
+      <c r="H101">
+        <v>50</v>
+      </c>
+      <c r="I101">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>1138</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>1322</v>
+      </c>
+      <c r="E102" s="1">
+        <v>75776</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>82.31</v>
+      </c>
+      <c r="H102">
+        <v>50</v>
+      </c>
+      <c r="I102">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <v>1840</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>2201</v>
+      </c>
+      <c r="E103">
+        <v>81920</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="H103">
+        <v>50</v>
+      </c>
+      <c r="I103">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>3341</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>3844</v>
+      </c>
+      <c r="E104">
+        <v>90112</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>61.9</v>
+      </c>
+      <c r="H104">
+        <v>50</v>
+      </c>
+      <c r="I104">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>16</v>
+      </c>
+      <c r="B105">
+        <v>6522</v>
+      </c>
+      <c r="C105">
+        <v>20</v>
+      </c>
+      <c r="D105">
+        <v>7328</v>
+      </c>
+      <c r="E105">
+        <v>102400</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105">
+        <v>60.94</v>
+      </c>
+      <c r="H105">
+        <v>50</v>
+      </c>
+      <c r="I105">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>32</v>
+      </c>
+      <c r="B106">
+        <v>12790</v>
+      </c>
+      <c r="C106">
+        <v>40</v>
+      </c>
+      <c r="D106">
+        <v>14107</v>
+      </c>
+      <c r="E106">
+        <v>122880</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106">
+        <v>59.44</v>
+      </c>
+      <c r="H106">
+        <v>50</v>
+      </c>
+      <c r="I106">
+        <v>32070</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>64</v>
+      </c>
+      <c r="B107">
+        <v>25312</v>
+      </c>
+      <c r="C107">
+        <v>79</v>
+      </c>
+      <c r="D107">
+        <v>27919</v>
+      </c>
+      <c r="E107">
+        <v>159744</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="G107">
+        <v>58.25</v>
+      </c>
+      <c r="H107">
+        <v>50</v>
+      </c>
+      <c r="I107">
+        <v>32070</v>
       </c>
     </row>
   </sheetData>

--- a/docs/reports/size_cores.xlsx
+++ b/docs/reports/size_cores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\uni\vmicro16\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B517DD-5D58-4FFD-9213-8366D1980A85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0765EAEA-D640-4018-81DB-3C4E6166725B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7366620-7C1B-460C-9134-2E5290F42A59}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
   <si>
     <t>Cores</t>
   </si>

--- a/docs/reports/size_cores.xlsx
+++ b/docs/reports/size_cores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\uni\vmicro16\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0765EAEA-D640-4018-81DB-3C4E6166725B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B1A040-C3FB-45CA-95A1-90F139CAC2CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7366620-7C1B-460C-9134-2E5290F42A59}"/>
   </bookViews>
@@ -2866,6 +2866,174 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6237301293079342E-2"/>
+                  <c:y val="-6.26073564289822E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-1AB2-4712-A9EE-F76C918083FA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.6945741933325975E-2"/>
+                  <c:y val="-8.6474781340560025E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-1AB2-4712-A9EE-F76C918083FA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7654182573572747E-2"/>
+                  <c:y val="3.2862343217328879E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1AB2-4712-A9EE-F76C918083FA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.0515222146741607E-2"/>
+                  <c:y val="-8.0507925112665579E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-1AB2-4712-A9EE-F76C918083FA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2667821079663772E-2"/>
+                  <c:y val="-4.4706787745298925E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-1AB2-4712-A9EE-F76C918083FA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:extLst>
@@ -3772,6 +3940,7 @@
         <c:axId val="435276240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10922,8 +11091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97F796E-16F2-4844-9FB7-50E4E41A20A2}">
   <dimension ref="A12:Z107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11035,7 +11204,7 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D19" si="0">D25*1.5</f>
+        <f t="shared" ref="D15" si="0">D25*1.5</f>
         <v>3301.5</v>
       </c>
       <c r="E15">
